--- a/medicine/Maladies infectieuses/Connectés/Connectés.xlsx
+++ b/medicine/Maladies infectieuses/Connectés/Connectés.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Connect%C3%A9s</t>
+          <t>Connectés</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Connectés est un film français réalisé par Romuald Boulanger, sorti en 2020 sur Prime Video.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Connect%C3%A9s</t>
+          <t>Connectés</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un samedi soir, en plein confinement, un groupe d'amis se retrouve pour un apéritif en visioconférence. Alors que tout se déroule normalement, l'un des interlocuteurs est agressé en direct par un inconnu. Ses amis assistent à la scène devant leur écran. Ils vont vite découvrir que le mystérieux agresseur les connaît très bien, ainsi que tous leurs secrets[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un samedi soir, en plein confinement, un groupe d'amis se retrouve pour un apéritif en visioconférence. Alors que tout se déroule normalement, l'un des interlocuteurs est agressé en direct par un inconnu. Ses amis assistent à la scène devant leur écran. Ils vont vite découvrir que le mystérieux agresseur les connaît très bien, ainsi que tous leurs secrets.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Connect%C3%A9s</t>
+          <t>Connectés</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
 Titre original : Connectés
@@ -559,7 +575,7 @@
 Format : couleur
 Genre : thriller, comédie
 Durée : 85 minutes
-Date de sortie[2] :
+Date de sortie :
  France : 12 novembre 2020 (sur Prime Video)</t>
         </is>
       </c>
@@ -570,7 +586,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Connect%C3%A9s</t>
+          <t>Connectés</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -588,7 +604,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Audrey Fleurot : Sarah
 Nadia Farès : Julie
@@ -609,7 +627,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Connect%C3%A9s</t>
+          <t>Connectés</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -627,9 +645,11 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le tournage démarre en juin 2020 dans les studios de Bry-sur-Marne[3]. Il a également lieu à Paris[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tournage démarre en juin 2020 dans les studios de Bry-sur-Marne. Il a également lieu à Paris.
 </t>
         </is>
       </c>
@@ -640,7 +660,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Connect%C3%A9s</t>
+          <t>Connectés</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -659,6 +679,8 @@
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
